--- a/Lab 3/Output.xlsx
+++ b/Lab 3/Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ancar\Documents\MATLAB\Heat Transfer Lab\HeatTransfer\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B30F809-FA51-46B5-8EE0-281ACE0D7421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17474185-2EB4-476F-B293-56B14B4427B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="7560" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="1980" yWindow="6195" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="15">
   <si>
     <t>dP1_onerod</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>Nominal_V_allrods</t>
+  </si>
+  <si>
+    <t>w_rho</t>
+  </si>
+  <si>
+    <t>w_delta_P_1</t>
+  </si>
+  <si>
+    <t>w_V_1_onerod</t>
+  </si>
+  <si>
+    <t>w_V_onerod</t>
+  </si>
+  <si>
+    <t>w_P</t>
+  </si>
+  <si>
+    <t>w_V_1_allrods</t>
+  </si>
+  <si>
+    <t>w_V_allrods</t>
   </si>
 </sst>
 </file>
@@ -72,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -101,6 +122,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
     <border/>
     <border/>
@@ -109,15 +187,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F2" sqref="F2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,24 +526,44 @@
     <col min="1" max="1" width="11.42578125" customWidth="true"/>
     <col min="3" max="3" width="20" customWidth="true"/>
     <col min="4" max="4" width="18" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="4.85546875" customWidth="true"/>
     <col min="2" max="2" width="11.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>233</v>
       </c>
@@ -439,8 +576,23 @@
       <c r="D2">
         <v>22.072210311889648</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G2">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H2">
+        <v>0.0069084158167243004</v>
+      </c>
+      <c r="I2">
+        <v>0.0076683415099978447</v>
+      </c>
+      <c r="J2">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>222</v>
       </c>
@@ -453,8 +605,23 @@
       <c r="D3">
         <v>21.544895172119141</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G3">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H3">
+        <v>0.0069997673854231834</v>
+      </c>
+      <c r="I3">
+        <v>0.0077697415836155415</v>
+      </c>
+      <c r="J3">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>197</v>
       </c>
@@ -467,8 +634,23 @@
       <c r="D4">
         <v>20.295558929443359</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G4">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H4">
+        <v>0.007254911120980978</v>
+      </c>
+      <c r="I4">
+        <v>0.0080529516562819481</v>
+      </c>
+      <c r="J4">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>157</v>
       </c>
@@ -481,8 +663,23 @@
       <c r="D5">
         <v>18.118309020996094</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G5">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H5">
+        <v>0.0078527666628360748</v>
+      </c>
+      <c r="I5">
+        <v>0.008716571144759655</v>
+      </c>
+      <c r="J5">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>106</v>
       </c>
@@ -495,8 +692,23 @@
       <c r="D6">
         <v>14.887466430664063</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G6">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H6">
+        <v>0.0092300344258546829</v>
+      </c>
+      <c r="I6">
+        <v>0.010245338082313538</v>
+      </c>
+      <c r="J6">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>67</v>
       </c>
@@ -509,8 +721,23 @@
       <c r="D7">
         <v>11.836008071899414</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G7">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H7">
+        <v>0.01139718946069479</v>
+      </c>
+      <c r="I7">
+        <v>0.01265088003128767</v>
+      </c>
+      <c r="J7">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>38</v>
       </c>
@@ -523,8 +750,23 @@
       <c r="D8">
         <v>8.9137334823608398</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="F8">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G8">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H8">
+        <v>0.015004578977823257</v>
+      </c>
+      <c r="I8">
+        <v>0.016655081883072853</v>
+      </c>
+      <c r="J8">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -537,8 +779,23 @@
       <c r="D9">
         <v>5.9620051383972168</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G9">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H9">
+        <v>0.022359540686011314</v>
+      </c>
+      <c r="I9">
+        <v>0.024819090962409973</v>
+      </c>
+      <c r="J9">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -550,6 +807,21 @@
       </c>
       <c r="D10">
         <v>3.8257527351379395</v>
+      </c>
+      <c r="F10">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G10">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H10">
+        <v>0.034820795059204102</v>
+      </c>
+      <c r="I10">
+        <v>0.038651082664728165</v>
+      </c>
+      <c r="J10">
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -565,28 +837,58 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
+      <c r="F11">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G11">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H11">
+        <v>9.2114906311035156</v>
+      </c>
+      <c r="I11">
+        <v>10.224754333496094</v>
+      </c>
+      <c r="J11">
+        <v>0.10000000000000001</v>
+      </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="F14" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>123</v>
       </c>
@@ -599,8 +901,23 @@
       <c r="D15">
         <v>28.895315170288086</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="F15">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G15">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H15">
+        <v>0.0086576603353023529</v>
+      </c>
+      <c r="I15">
+        <v>0.017315320670604706</v>
+      </c>
+      <c r="J15">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>117</v>
       </c>
@@ -613,8 +930,23 @@
       <c r="D16">
         <v>28.181739807128906</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="F16">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G16">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H16">
+        <v>0.0088431630283594131</v>
+      </c>
+      <c r="I16">
+        <v>0.017686326056718826</v>
+      </c>
+      <c r="J16">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>105</v>
       </c>
@@ -627,8 +959,23 @@
       <c r="D17">
         <v>26.69743537902832</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="F17">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G17">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H17">
+        <v>0.0092686237767338753</v>
+      </c>
+      <c r="I17">
+        <v>0.018537247553467751</v>
+      </c>
+      <c r="J17">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>86</v>
       </c>
@@ -641,8 +988,23 @@
       <c r="D18">
         <v>24.16151237487793</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="F18">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G18">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H18">
+        <v>0.010140943340957165</v>
+      </c>
+      <c r="I18">
+        <v>0.02028188668191433</v>
+      </c>
+      <c r="J18">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>65</v>
       </c>
@@ -655,8 +1017,23 @@
       <c r="D19">
         <v>21.005430221557617</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="F19">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G19">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H19">
+        <v>0.011562681756913662</v>
+      </c>
+      <c r="I19">
+        <v>0.023125363513827324</v>
+      </c>
+      <c r="J19">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>45</v>
       </c>
@@ -669,8 +1046,23 @@
       <c r="D20">
         <v>17.477573394775391</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="F20">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G20">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H20">
+        <v>0.013810966163873672</v>
+      </c>
+      <c r="I20">
+        <v>0.027621932327747345</v>
+      </c>
+      <c r="J20">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>27</v>
       </c>
@@ -683,8 +1075,23 @@
       <c r="D21">
         <v>13.538070678710938</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="F21">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G21">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H21">
+        <v>0.017764413729310036</v>
+      </c>
+      <c r="I21">
+        <v>0.035528827458620071</v>
+      </c>
+      <c r="J21">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -697,8 +1104,23 @@
       <c r="D22">
         <v>9.3939132690429688</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="F22">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G22">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H22">
+        <v>0.025560325011610985</v>
+      </c>
+      <c r="I22">
+        <v>0.05112065002322197</v>
+      </c>
+      <c r="J22">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -711,8 +1133,23 @@
       <c r="D23">
         <v>6.3819074630737305</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="F23">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G23">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H23">
+        <v>0.037609308958053589</v>
+      </c>
+      <c r="I23">
+        <v>0.075218617916107178</v>
+      </c>
+      <c r="J23">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -724,6 +1161,21 @@
       </c>
       <c r="D24">
         <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.00039862471749074757</v>
+      </c>
+      <c r="G24">
+        <v>0.1414213627576828</v>
+      </c>
+      <c r="H24">
+        <v>9.2114906311035156</v>
+      </c>
+      <c r="I24">
+        <v>18.422981262207031</v>
+      </c>
+      <c r="J24">
+        <v>0.10000000000000001</v>
       </c>
     </row>
   </sheetData>
